--- a/output/aggregate_tables/status_by_landings_w_totals_area.xlsx
+++ b/output/aggregate_tables/status_by_landings_w_totals_area.xlsx
@@ -496,7 +496,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I23"/>
+  <dimension ref="A1:I25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -574,7 +574,7 @@
         <v>21</v>
       </c>
       <c r="B4" s="6" t="n">
-        <v>1.6229748</v>
+        <v>1.61573879</v>
       </c>
       <c r="C4" s="6" t="n">
         <v>1.4500171446666</v>
@@ -601,7 +601,7 @@
         <v>27</v>
       </c>
       <c r="B5" s="6" t="n">
-        <v>8.088492569999998</v>
+        <v>8.03285533</v>
       </c>
       <c r="C5" s="6" t="n">
         <v>7.334190808965517</v>
@@ -628,7 +628,7 @@
         <v>31</v>
       </c>
       <c r="B6" s="6" t="n">
-        <v>1.16162117</v>
+        <v>1.11276046</v>
       </c>
       <c r="C6" s="6" t="n">
         <v>0.8486084899999999</v>
@@ -655,7 +655,7 @@
         <v>34</v>
       </c>
       <c r="B7" s="6" t="n">
-        <v>5.1666412</v>
+        <v>4.83827694</v>
       </c>
       <c r="C7" s="6" t="n">
         <v>3.566222920002001</v>
@@ -682,7 +682,7 @@
         <v>37</v>
       </c>
       <c r="B8" s="6" t="n">
-        <v>1.13584225</v>
+        <v>1.10877186</v>
       </c>
       <c r="C8" s="6" t="n">
         <v>0.7436210511818182</v>
@@ -709,7 +709,7 @@
         <v>41</v>
       </c>
       <c r="B9" s="6" t="n">
-        <v>2.01386667</v>
+        <v>1.97234068</v>
       </c>
       <c r="C9" s="6" t="n">
         <v>1.64970041</v>
@@ -736,7 +736,7 @@
         <v>47</v>
       </c>
       <c r="B10" s="6" t="n">
-        <v>1.4602869</v>
+        <v>1.40545502</v>
       </c>
       <c r="C10" s="6" t="n">
         <v>1.3530302</v>
@@ -763,7 +763,7 @@
         <v>51</v>
       </c>
       <c r="B11" s="6" t="n">
-        <v>5.4821094</v>
+        <v>4.57255396</v>
       </c>
       <c r="C11" s="6" t="n">
         <v>4.325058629</v>
@@ -790,7 +790,7 @@
         <v>57</v>
       </c>
       <c r="B12" s="6" t="n">
-        <v>5.88707507</v>
+        <v>5.55043587</v>
       </c>
       <c r="C12" s="6" t="n">
         <v>5.479941005774659</v>
@@ -817,7 +817,7 @@
         <v>61</v>
       </c>
       <c r="B13" s="6" t="n">
-        <v>19.07760146</v>
+        <v>18.88724254</v>
       </c>
       <c r="C13" s="6" t="n">
         <v>14.372642369999</v>
@@ -844,7 +844,7 @@
         <v>67</v>
       </c>
       <c r="B14" s="6" t="n">
-        <v>2.91385131</v>
+        <v>2.53299854</v>
       </c>
       <c r="C14" s="6" t="n">
         <v>2.490199989999999</v>
@@ -871,7 +871,7 @@
         <v>71</v>
       </c>
       <c r="B15" s="6" t="n">
-        <v>13.49884552</v>
+        <v>11.08028039</v>
       </c>
       <c r="C15" s="6" t="n">
         <v>9.08822223</v>
@@ -898,7 +898,7 @@
         <v>77</v>
       </c>
       <c r="B16" s="6" t="n">
-        <v>1.95852772</v>
+        <v>1.54110561</v>
       </c>
       <c r="C16" s="6" t="n">
         <v>1.326601395862069</v>
@@ -925,7 +925,7 @@
         <v>81</v>
       </c>
       <c r="B17" s="6" t="n">
-        <v>0.3878630200000001</v>
+        <v>0.3627843100000001</v>
       </c>
       <c r="C17" s="6" t="n">
         <v>0.32778533</v>
@@ -952,7 +952,7 @@
         <v>87</v>
       </c>
       <c r="B18" s="6" t="n">
-        <v>10.03823625</v>
+        <v>9.569458259999999</v>
       </c>
       <c r="C18" s="6" t="n">
         <v>9.244649563999999</v>
@@ -981,7 +981,7 @@
         </is>
       </c>
       <c r="B19" s="6" t="n">
-        <v>0.38665752</v>
+        <v>0.38665748</v>
       </c>
       <c r="C19" s="6" t="n">
         <v>0.38501975</v>
@@ -1006,104 +1006,160 @@
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>Salmon</t>
-        </is>
-      </c>
-      <c r="B20" s="6" t="n">
-        <v>1.014451</v>
-      </c>
+          <t>Deep Sea</t>
+        </is>
+      </c>
+      <c r="B20" s="6" t="n"/>
       <c r="C20" s="6" t="n">
-        <v>0.375009</v>
-      </c>
-      <c r="D20" s="6" t="n">
-        <v>19.7353802540078</v>
+        <v>0.39069494</v>
+      </c>
+      <c r="D20" s="8" t="n">
+        <v>0</v>
       </c>
       <c r="E20" s="6" t="n">
-        <v>70.87896192485682</v>
+        <v>31.05998762103241</v>
       </c>
       <c r="F20" s="6" t="n">
-        <v>9.38565782113537</v>
+        <v>68.94001237896759</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>90.61434217886463</v>
+        <v>31.05998762103241</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>9.38565782113537</v>
+        <v>68.94001237896759</v>
       </c>
       <c r="I20" s="6" t="n"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>Sharks</t>
+          <t>Salmon</t>
         </is>
       </c>
       <c r="B21" s="6" t="n">
-        <v>0.13268879</v>
-      </c>
-      <c r="C21" s="9" t="n">
-        <v>0.07928484</v>
+        <v>0.375009</v>
+      </c>
+      <c r="C21" s="6" t="n">
+        <v>0.375009</v>
       </c>
       <c r="D21" s="6" t="n">
-        <v>60.73272015179699</v>
+        <v>19.7353802540078</v>
       </c>
       <c r="E21" s="6" t="n">
-        <v>28.64299152271734</v>
+        <v>70.87896192485682</v>
       </c>
       <c r="F21" s="6" t="n">
-        <v>10.62428832548568</v>
+        <v>9.38565782113537</v>
       </c>
       <c r="G21" s="6" t="n">
-        <v>89.37571167451432</v>
+        <v>90.61434217886463</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>10.62428832548568</v>
+        <v>9.38565782113537</v>
       </c>
       <c r="I21" s="6" t="n"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>Tuna</t>
+          <t>Sharks</t>
         </is>
       </c>
       <c r="B22" s="6" t="n">
-        <v>5.203079</v>
-      </c>
-      <c r="C22" s="6" t="n">
-        <v>4.9966005</v>
+        <v>0.13268879</v>
+      </c>
+      <c r="C22" s="9" t="n">
+        <v>0.07928484</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>82.48608869170148</v>
+        <v>60.73272015179699</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>16.79627658845249</v>
+        <v>28.64299152271734</v>
       </c>
       <c r="F22" s="6" t="n">
-        <v>0.7176347198460232</v>
+        <v>10.62428832548568</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>99.28236528015397</v>
+        <v>89.37571167451432</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.7176347198460232</v>
+        <v>10.62428832548568</v>
       </c>
       <c r="I22" s="6" t="n"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
+          <t>Tuna</t>
+        </is>
+      </c>
+      <c r="B23" s="6" t="n">
+        <v>5.203079</v>
+      </c>
+      <c r="C23" s="6" t="n">
+        <v>4.9966005</v>
+      </c>
+      <c r="D23" s="6" t="n">
+        <v>82.48608869170148</v>
+      </c>
+      <c r="E23" s="6" t="n">
+        <v>16.79627658845249</v>
+      </c>
+      <c r="F23" s="6" t="n">
+        <v>0.7176347198460232</v>
+      </c>
+      <c r="G23" s="6" t="n">
+        <v>99.28236528015397</v>
+      </c>
+      <c r="H23" s="6" t="n">
+        <v>0.7176347198460232</v>
+      </c>
+      <c r="I23" s="6" t="n"/>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="inlineStr">
+        <is>
+          <t>Global</t>
+        </is>
+      </c>
+      <c r="B24" s="6" t="n">
+        <v>80.28049283000001</v>
+      </c>
+      <c r="C24" s="6" t="n">
+        <v>69.82710056945166</v>
+      </c>
+      <c r="D24" s="6" t="n">
+        <v>26.54050139689776</v>
+      </c>
+      <c r="E24" s="6" t="n">
+        <v>48.26523387391203</v>
+      </c>
+      <c r="F24" s="6" t="n">
+        <v>25.19426472919021</v>
+      </c>
+      <c r="G24" s="6" t="n">
+        <v>74.80573527080979</v>
+      </c>
+      <c r="H24" s="6" t="n">
+        <v>25.19426472919021</v>
+      </c>
+      <c r="I24" s="6" t="n"/>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="inlineStr">
+        <is>
           <t>Footnote</t>
         </is>
       </c>
-      <c r="B23" s="6" t="n"/>
-      <c r="C23" s="6" t="n"/>
-      <c r="D23" s="6" t="n"/>
-      <c r="E23" s="6" t="n"/>
-      <c r="F23" s="6" t="n"/>
-      <c r="G23" s="6" t="n"/>
-      <c r="H23" s="6" t="n"/>
-      <c r="I23" t="inlineStr">
+      <c r="B25" s="6" t="n"/>
+      <c r="C25" s="6" t="n"/>
+      <c r="D25" s="6" t="n"/>
+      <c r="E25" s="6" t="n"/>
+      <c r="F25" s="6" t="n"/>
+      <c r="G25" s="6" t="n"/>
+      <c r="H25" s="6" t="n"/>
+      <c r="I25" t="inlineStr">
         <is>
           <t>Note: Percent coverage in this sheet (Total Assessed Landings / Total Landings * 100) does not reflect reported percent coverage. 
 For percent coverage, the landings of 'Salmon', 'Tuna', 'Deep Sea' and 'Sharks' are incorporated in the FAO major fishing areas 

--- a/output/aggregate_tables/status_by_landings_w_totals_area.xlsx
+++ b/output/aggregate_tables/status_by_landings_w_totals_area.xlsx
@@ -628,7 +628,7 @@
         <v>31</v>
       </c>
       <c r="B6" s="6" t="n">
-        <v>1.11276046</v>
+        <v>1.11323627</v>
       </c>
       <c r="C6" s="6" t="n">
         <v>0.8486084899999999</v>
@@ -736,7 +736,7 @@
         <v>47</v>
       </c>
       <c r="B10" s="6" t="n">
-        <v>1.40545502</v>
+        <v>1.42110916</v>
       </c>
       <c r="C10" s="6" t="n">
         <v>1.3530302</v>
@@ -763,7 +763,7 @@
         <v>51</v>
       </c>
       <c r="B11" s="6" t="n">
-        <v>4.57255396</v>
+        <v>4.57978039</v>
       </c>
       <c r="C11" s="6" t="n">
         <v>4.325058629</v>
@@ -790,7 +790,7 @@
         <v>57</v>
       </c>
       <c r="B12" s="6" t="n">
-        <v>5.55043587</v>
+        <v>5.569185109999999</v>
       </c>
       <c r="C12" s="6" t="n">
         <v>5.479941005774659</v>
@@ -871,7 +871,7 @@
         <v>71</v>
       </c>
       <c r="B15" s="6" t="n">
-        <v>11.08028039</v>
+        <v>11.0806615</v>
       </c>
       <c r="C15" s="6" t="n">
         <v>9.08822223</v>
@@ -898,7 +898,7 @@
         <v>77</v>
       </c>
       <c r="B16" s="6" t="n">
-        <v>1.54110561</v>
+        <v>1.5449858</v>
       </c>
       <c r="C16" s="6" t="n">
         <v>1.326601395862069</v>
@@ -925,7 +925,7 @@
         <v>81</v>
       </c>
       <c r="B17" s="6" t="n">
-        <v>0.3627843100000001</v>
+        <v>0.36511338</v>
       </c>
       <c r="C17" s="6" t="n">
         <v>0.32778533</v>
@@ -1124,7 +1124,7 @@
         </is>
       </c>
       <c r="B24" s="6" t="n">
-        <v>80.28049283000001</v>
+        <v>80.32918882000001</v>
       </c>
       <c r="C24" s="6" t="n">
         <v>69.82710056945166</v>
@@ -1161,9 +1161,11 @@
       <c r="H25" s="6" t="n"/>
       <c r="I25" t="inlineStr">
         <is>
-          <t>Note: Percent coverage in this sheet (Total Assessed Landings / Total Landings * 100) does not reflect reported percent coverage. 
-For percent coverage, the landings of 'Salmon', 'Tuna', 'Deep Sea' and 'Sharks' are incorporated in the FAO major fishing areas 
-from which their landings are reported. Thus, percent coverage calculated from this table will appear lower than reported elsewhere.</t>
+          <t>Note: Percent coverage in this sheet does not reflect reported percent coverage. For the reported percent coverage, 
+the landings of 'Salmon', 'Tuna', and 'Sharks' are incorporated in the FAO major fishing areas 
+from which their landings are reported. Thus, percent coverage calculated from this table will slightly different than reported elsewhere. 
+Area landings exclude landings from ISSCAAP codes 46, 61, 62, 63, 64, 71, 72, 73, 74, 81, 82, 83, 91, 92, 93, 94, 
+except for stocks which have been incorporated in assessment.</t>
         </is>
       </c>
     </row>

--- a/output/aggregate_tables/status_by_landings_w_totals_area.xlsx
+++ b/output/aggregate_tables/status_by_landings_w_totals_area.xlsx
@@ -1011,22 +1011,22 @@
       </c>
       <c r="B20" s="6" t="n"/>
       <c r="C20" s="6" t="n">
-        <v>0.39069494</v>
+        <v>0.38149296</v>
       </c>
       <c r="D20" s="8" t="n">
         <v>0</v>
       </c>
       <c r="E20" s="6" t="n">
-        <v>31.05998762103241</v>
+        <v>29.39708769461958</v>
       </c>
       <c r="F20" s="6" t="n">
-        <v>68.94001237896759</v>
+        <v>70.60291230538041</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>31.05998762103241</v>
+        <v>29.39708769461958</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>68.94001237896759</v>
+        <v>70.60291230538041</v>
       </c>
       <c r="I20" s="6" t="n"/>
     </row>
@@ -1069,22 +1069,22 @@
         <v>0.13268879</v>
       </c>
       <c r="C22" s="9" t="n">
-        <v>0.07928484</v>
+        <v>0.05711541</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>60.73272015179699</v>
+        <v>48.09540892729301</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>28.64299152271734</v>
+        <v>37.15646968129967</v>
       </c>
       <c r="F22" s="6" t="n">
-        <v>10.62428832548568</v>
+        <v>14.74812139140733</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>89.37571167451432</v>
+        <v>85.25187860859268</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>10.62428832548568</v>
+        <v>14.74812139140733</v>
       </c>
       <c r="I22" s="6" t="n"/>
     </row>
@@ -1127,22 +1127,22 @@
         <v>80.32918882000001</v>
       </c>
       <c r="C24" s="6" t="n">
-        <v>69.82710056945166</v>
+        <v>69.79572915945167</v>
       </c>
       <c r="D24" s="6" t="n">
-        <v>26.54050139689776</v>
+        <v>26.5227985651636</v>
       </c>
       <c r="E24" s="6" t="n">
-        <v>48.26523387391203</v>
+        <v>48.27161252266269</v>
       </c>
       <c r="F24" s="6" t="n">
-        <v>25.19426472919021</v>
+        <v>25.2055889121737</v>
       </c>
       <c r="G24" s="6" t="n">
-        <v>74.80573527080979</v>
+        <v>74.79441108782629</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>25.19426472919021</v>
+        <v>25.2055889121737</v>
       </c>
       <c r="I24" s="6" t="n"/>
     </row>

--- a/output/aggregate_tables/status_by_landings_w_totals_area.xlsx
+++ b/output/aggregate_tables/status_by_landings_w_totals_area.xlsx
@@ -628,7 +628,7 @@
         <v>31</v>
       </c>
       <c r="B6" s="6" t="n">
-        <v>1.11323627</v>
+        <v>1.113236270000001</v>
       </c>
       <c r="C6" s="6" t="n">
         <v>0.8486084899999999</v>
@@ -739,22 +739,22 @@
         <v>1.42110916</v>
       </c>
       <c r="C10" s="6" t="n">
-        <v>1.3530302</v>
+        <v>1.35237506</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>6.338331535448821</v>
+        <v>6.341402055340052</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>39.54780046277306</v>
+        <v>39.51851520369351</v>
       </c>
       <c r="F10" s="6" t="n">
-        <v>54.11386800177811</v>
+        <v>54.14008274096643</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>45.88613199822188</v>
+        <v>45.85991725903357</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>54.11386800177811</v>
+        <v>54.14008274096643</v>
       </c>
       <c r="I10" s="6" t="n"/>
     </row>
@@ -763,25 +763,25 @@
         <v>51</v>
       </c>
       <c r="B11" s="6" t="n">
-        <v>4.57978039</v>
+        <v>4.579780390000003</v>
       </c>
       <c r="C11" s="6" t="n">
-        <v>4.325058629</v>
+        <v>4.324561374</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>25.99991269333398</v>
+        <v>25.99140387354132</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>44.04239282476506</v>
+        <v>44.04745699154409</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>29.95769448190097</v>
+        <v>29.9611391349146</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>70.04230551809903</v>
+        <v>70.03886086508541</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>29.95769448190097</v>
+        <v>29.9611391349146</v>
       </c>
       <c r="I11" s="6" t="n"/>
     </row>
@@ -790,25 +790,25 @@
         <v>57</v>
       </c>
       <c r="B12" s="6" t="n">
-        <v>5.569185109999999</v>
+        <v>5.56918511</v>
       </c>
       <c r="C12" s="6" t="n">
-        <v>5.479941005774659</v>
+        <v>5.47975862077466</v>
       </c>
       <c r="D12" s="6" t="n">
-        <v>14.93852472031594</v>
+        <v>14.93902192521486</v>
       </c>
       <c r="E12" s="6" t="n">
-        <v>67.50543610118396</v>
+        <v>67.50435457160448</v>
       </c>
       <c r="F12" s="6" t="n">
-        <v>17.55603917850011</v>
+        <v>17.55662350318067</v>
       </c>
       <c r="G12" s="6" t="n">
-        <v>82.4439608214999</v>
+        <v>82.44337649681934</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>17.55603917850011</v>
+        <v>17.55662350318067</v>
       </c>
       <c r="I12" s="6" t="n"/>
     </row>
@@ -874,22 +874,22 @@
         <v>11.0806615</v>
       </c>
       <c r="C15" s="6" t="n">
-        <v>9.08822223</v>
+        <v>9.088031675</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>22.93008856394676</v>
+        <v>22.93056935485755</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>26.5740331551161</v>
+        <v>26.57459035111507</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>50.49587828093715</v>
+        <v>50.49484029402739</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>49.50412171906286</v>
+        <v>49.50515970597262</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>50.49587828093715</v>
+        <v>50.49484029402739</v>
       </c>
       <c r="I15" s="6" t="n"/>
     </row>
@@ -898,25 +898,25 @@
         <v>77</v>
       </c>
       <c r="B16" s="6" t="n">
-        <v>1.5449858</v>
+        <v>1.544985800000001</v>
       </c>
       <c r="C16" s="6" t="n">
-        <v>1.326601395862069</v>
+        <v>1.324661300862069</v>
       </c>
       <c r="D16" s="6" t="n">
-        <v>43.35404680394501</v>
+        <v>43.27108330943184</v>
       </c>
       <c r="E16" s="6" t="n">
-        <v>38.23605136234505</v>
+        <v>38.29205176940727</v>
       </c>
       <c r="F16" s="6" t="n">
-        <v>18.40990183370993</v>
+        <v>18.43686492116091</v>
       </c>
       <c r="G16" s="6" t="n">
-        <v>81.59009816629006</v>
+        <v>81.56313507883911</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>18.40990183370993</v>
+        <v>18.43686492116091</v>
       </c>
       <c r="I16" s="6" t="n"/>
     </row>
@@ -925,7 +925,7 @@
         <v>81</v>
       </c>
       <c r="B17" s="6" t="n">
-        <v>0.36511338</v>
+        <v>0.3651133800000001</v>
       </c>
       <c r="C17" s="6" t="n">
         <v>0.32778533</v>
@@ -1065,26 +1065,26 @@
           <t>Sharks</t>
         </is>
       </c>
-      <c r="B22" s="6" t="n">
-        <v>0.13268879</v>
+      <c r="B22" s="9" t="n">
+        <v>0.08399280000000002</v>
       </c>
       <c r="C22" s="9" t="n">
-        <v>0.05711541</v>
+        <v>0.05642497</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>48.09540892729301</v>
+        <v>48.68392486517937</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>37.15646968129967</v>
+        <v>37.54857113791996</v>
       </c>
       <c r="F22" s="6" t="n">
-        <v>14.74812139140733</v>
+        <v>13.76750399690066</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>85.25187860859268</v>
+        <v>86.23249600309933</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>14.74812139140733</v>
+        <v>13.76750399690066</v>
       </c>
       <c r="I22" s="6" t="n"/>
     </row>
@@ -1124,25 +1124,25 @@
         </is>
       </c>
       <c r="B24" s="6" t="n">
-        <v>80.32918882000001</v>
+        <v>80.28049283000003</v>
       </c>
       <c r="C24" s="6" t="n">
-        <v>69.79572915945167</v>
+        <v>69.79157328945166</v>
       </c>
       <c r="D24" s="6" t="n">
-        <v>26.5227985651636</v>
+        <v>26.52088558783935</v>
       </c>
       <c r="E24" s="6" t="n">
-        <v>48.27161252266269</v>
+        <v>48.27323632967825</v>
       </c>
       <c r="F24" s="6" t="n">
-        <v>25.2055889121737</v>
+        <v>25.2058780824824</v>
       </c>
       <c r="G24" s="6" t="n">
-        <v>74.79441108782629</v>
+        <v>74.7941219175176</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>25.2055889121737</v>
+        <v>25.2058780824824</v>
       </c>
       <c r="I24" s="6" t="n"/>
     </row>

--- a/output/aggregate_tables/status_by_landings_w_totals_area.xlsx
+++ b/output/aggregate_tables/status_by_landings_w_totals_area.xlsx
@@ -577,22 +577,22 @@
         <v>1.61573879</v>
       </c>
       <c r="C4" s="6" t="n">
-        <v>1.4500171446666</v>
+        <v>1.422764467196325</v>
       </c>
       <c r="D4" s="6" t="n">
-        <v>14.82558681181366</v>
+        <v>15.10956701022704</v>
       </c>
       <c r="E4" s="6" t="n">
-        <v>69.12478098785597</v>
+        <v>69.04212945962217</v>
       </c>
       <c r="F4" s="6" t="n">
-        <v>16.04963220033037</v>
+        <v>15.84830353015079</v>
       </c>
       <c r="G4" s="6" t="n">
-        <v>83.95036779966964</v>
+        <v>84.15169646984921</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>16.04963220033037</v>
+        <v>15.84830353015079</v>
       </c>
       <c r="I4" s="6" t="n"/>
     </row>
@@ -601,25 +601,25 @@
         <v>27</v>
       </c>
       <c r="B5" s="6" t="n">
-        <v>8.03285533</v>
+        <v>8.03286593</v>
       </c>
       <c r="C5" s="6" t="n">
-        <v>7.334190808965517</v>
+        <v>7.33419037196252</v>
       </c>
       <c r="D5" s="6" t="n">
-        <v>3.56009176493773</v>
+        <v>3.560091977063498</v>
       </c>
       <c r="E5" s="6" t="n">
-        <v>83.02405763732639</v>
+        <v>83.02406258426124</v>
       </c>
       <c r="F5" s="6" t="n">
-        <v>13.41585059773589</v>
+        <v>13.41584543867526</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>86.58414940226412</v>
+        <v>86.58415456132474</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>13.41585059773589</v>
+        <v>13.41584543867526</v>
       </c>
       <c r="I5" s="6" t="n"/>
     </row>
@@ -1010,23 +1010,23 @@
         </is>
       </c>
       <c r="B20" s="6" t="n"/>
-      <c r="C20" s="6" t="n">
-        <v>0.38149296</v>
+      <c r="C20" s="9" t="n">
+        <v>0.07802511163319266</v>
       </c>
       <c r="D20" s="8" t="n">
         <v>0</v>
       </c>
       <c r="E20" s="6" t="n">
-        <v>29.39708769461958</v>
+        <v>55.08837186735091</v>
       </c>
       <c r="F20" s="6" t="n">
-        <v>70.60291230538041</v>
+        <v>44.91162813264909</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>29.39708769461958</v>
+        <v>55.08837186735091</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>70.60291230538041</v>
+        <v>44.91162813264909</v>
       </c>
       <c r="I20" s="6" t="n"/>
     </row>
@@ -1069,22 +1069,22 @@
         <v>0.08399280000000002</v>
       </c>
       <c r="C22" s="9" t="n">
-        <v>0.05642497</v>
+        <v>0.05364998000000001</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>48.68392486517937</v>
+        <v>49.92385831271513</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>37.54857113791996</v>
+        <v>38.86139379735091</v>
       </c>
       <c r="F22" s="6" t="n">
-        <v>13.76750399690066</v>
+        <v>11.21474788993398</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>86.23249600309933</v>
+        <v>88.78525211006604</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>13.76750399690066</v>
+        <v>11.21474788993398</v>
       </c>
       <c r="I22" s="6" t="n"/>
     </row>
@@ -1124,25 +1124,25 @@
         </is>
       </c>
       <c r="B24" s="6" t="n">
-        <v>80.28049283000003</v>
+        <v>80.28050343000002</v>
       </c>
       <c r="C24" s="6" t="n">
-        <v>69.79157328945166</v>
+        <v>69.45807733661159</v>
       </c>
       <c r="D24" s="6" t="n">
-        <v>26.52088558783935</v>
+        <v>26.64723565892969</v>
       </c>
       <c r="E24" s="6" t="n">
-        <v>48.27323632967825</v>
+        <v>48.37613624522655</v>
       </c>
       <c r="F24" s="6" t="n">
-        <v>25.2058780824824</v>
+        <v>24.97662809584376</v>
       </c>
       <c r="G24" s="6" t="n">
-        <v>74.7941219175176</v>
+        <v>75.02337190415625</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>25.2058780824824</v>
+        <v>24.97662809584376</v>
       </c>
       <c r="I24" s="6" t="n"/>
     </row>
@@ -1162,9 +1162,9 @@
       <c r="I25" t="inlineStr">
         <is>
           <t>Note: Percent coverage in this sheet does not reflect reported percent coverage. For the reported percent coverage, 
-the landings of 'Salmon', 'Tuna', and 'Sharks' are incorporated in the FAO major fishing areas 
+the landings of 'Deep Sea', 'Salmon', 'Tuna', and 'Sharks' are incorporated in the FAO major fishing areas 
 from which their landings are reported. Thus, percent coverage calculated from this table will slightly different than reported elsewhere. 
-Area landings exclude landings from ISSCAAP codes 46, 61, 62, 63, 64, 71, 72, 73, 74, 81, 82, 83, 91, 92, 93, 94, 
+Area landings exclude landings from ISSCAAP codes 61, 62, 63, 64, 71, 72, 73, 74, 81, 82, 83, 91, 92, 93, 94, 
 except for stocks which have been incorporated in assessment.</t>
         </is>
       </c>

--- a/output/aggregate_tables/status_by_landings_w_totals_area.xlsx
+++ b/output/aggregate_tables/status_by_landings_w_totals_area.xlsx
@@ -496,7 +496,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I25"/>
+  <dimension ref="A1:I24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -577,22 +577,22 @@
         <v>1.61573879</v>
       </c>
       <c r="C4" s="6" t="n">
-        <v>1.422764467196325</v>
+        <v>1.512277578288221</v>
       </c>
       <c r="D4" s="6" t="n">
-        <v>15.10956701022704</v>
+        <v>14.21521773880041</v>
       </c>
       <c r="E4" s="6" t="n">
-        <v>69.04212945962217</v>
+        <v>68.95707718957658</v>
       </c>
       <c r="F4" s="6" t="n">
-        <v>15.84830353015079</v>
+        <v>16.82770507162302</v>
       </c>
       <c r="G4" s="6" t="n">
-        <v>84.15169646984921</v>
+        <v>83.17229492837699</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>15.84830353015079</v>
+        <v>16.82770507162302</v>
       </c>
       <c r="I4" s="6" t="n"/>
     </row>
@@ -604,22 +604,22 @@
         <v>8.03286593</v>
       </c>
       <c r="C5" s="6" t="n">
-        <v>7.33419037196252</v>
+        <v>7.334160693085714</v>
       </c>
       <c r="D5" s="6" t="n">
-        <v>3.560091977063498</v>
+        <v>3.560106383556024</v>
       </c>
       <c r="E5" s="6" t="n">
-        <v>83.02406258426124</v>
+        <v>83.02398792990367</v>
       </c>
       <c r="F5" s="6" t="n">
-        <v>13.41584543867526</v>
+        <v>13.41590568654031</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>86.58415456132474</v>
+        <v>86.58409431345969</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>13.41584543867526</v>
+        <v>13.41590568654031</v>
       </c>
       <c r="I5" s="6" t="n"/>
     </row>
@@ -739,22 +739,22 @@
         <v>1.42110916</v>
       </c>
       <c r="C10" s="6" t="n">
-        <v>1.35237506</v>
+        <v>1.35239311</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>6.341402055340052</v>
+        <v>6.332521257555844</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>39.51851520369351</v>
+        <v>39.53851405642543</v>
       </c>
       <c r="F10" s="6" t="n">
-        <v>54.14008274096643</v>
+        <v>54.12896468601873</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>45.85991725903357</v>
+        <v>45.87103531398127</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>54.14008274096643</v>
+        <v>54.12896468601873</v>
       </c>
       <c r="I10" s="6" t="n"/>
     </row>
@@ -820,22 +820,22 @@
         <v>18.88724254</v>
       </c>
       <c r="C13" s="6" t="n">
-        <v>14.372642369999</v>
+        <v>14.379796609999</v>
       </c>
       <c r="D13" s="6" t="n">
-        <v>31.5181558556679</v>
+        <v>31.35428380642543</v>
       </c>
       <c r="E13" s="6" t="n">
-        <v>41.19392676366186</v>
+        <v>41.27778074600292</v>
       </c>
       <c r="F13" s="6" t="n">
-        <v>27.28791738067023</v>
+        <v>27.36793544757166</v>
       </c>
       <c r="G13" s="6" t="n">
-        <v>72.71208261932976</v>
+        <v>72.63206455242835</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>27.28791738067023</v>
+        <v>27.36793544757166</v>
       </c>
       <c r="I13" s="6" t="n"/>
     </row>
@@ -987,10 +987,10 @@
         <v>0.38501975</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>98.90828111198626</v>
+        <v>98.47978014980617</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>1.091718888013754</v>
+        <v>1.520219850193832</v>
       </c>
       <c r="F19" s="8" t="n">
         <v>0</v>
@@ -1006,160 +1006,133 @@
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>Deep Sea</t>
-        </is>
-      </c>
-      <c r="B20" s="6" t="n"/>
-      <c r="C20" s="9" t="n">
-        <v>0.07802511163319266</v>
-      </c>
-      <c r="D20" s="8" t="n">
-        <v>0</v>
+          <t>Salmon</t>
+        </is>
+      </c>
+      <c r="B20" s="6" t="n">
+        <v>0.375009</v>
+      </c>
+      <c r="C20" s="6" t="n">
+        <v>0.375009</v>
+      </c>
+      <c r="D20" s="6" t="n">
+        <v>19.7353802540078</v>
       </c>
       <c r="E20" s="6" t="n">
-        <v>55.08837186735091</v>
+        <v>70.87896192485682</v>
       </c>
       <c r="F20" s="6" t="n">
-        <v>44.91162813264909</v>
+        <v>9.38565782113537</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>55.08837186735091</v>
+        <v>90.61434217886463</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>44.91162813264909</v>
+        <v>9.38565782113537</v>
       </c>
       <c r="I20" s="6" t="n"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>Salmon</t>
-        </is>
-      </c>
-      <c r="B21" s="6" t="n">
-        <v>0.375009</v>
-      </c>
-      <c r="C21" s="6" t="n">
-        <v>0.375009</v>
+          <t>Sharks</t>
+        </is>
+      </c>
+      <c r="B21" s="9" t="n">
+        <v>0.08399280000000002</v>
+      </c>
+      <c r="C21" s="9" t="n">
+        <v>0.05364998000000001</v>
       </c>
       <c r="D21" s="6" t="n">
-        <v>19.7353802540078</v>
+        <v>49.92385831271513</v>
       </c>
       <c r="E21" s="6" t="n">
-        <v>70.87896192485682</v>
+        <v>38.86139379735091</v>
       </c>
       <c r="F21" s="6" t="n">
-        <v>9.38565782113537</v>
+        <v>11.21474788993398</v>
       </c>
       <c r="G21" s="6" t="n">
-        <v>90.61434217886463</v>
+        <v>88.78525211006604</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>9.38565782113537</v>
+        <v>11.21474788993398</v>
       </c>
       <c r="I21" s="6" t="n"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>Sharks</t>
-        </is>
-      </c>
-      <c r="B22" s="9" t="n">
-        <v>0.08399280000000002</v>
-      </c>
-      <c r="C22" s="9" t="n">
-        <v>0.05364998000000001</v>
+          <t>Tuna</t>
+        </is>
+      </c>
+      <c r="B22" s="6" t="n">
+        <v>5.203079</v>
+      </c>
+      <c r="C22" s="6" t="n">
+        <v>4.9966005</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>49.92385831271513</v>
+        <v>82.48608869170148</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>38.86139379735091</v>
+        <v>16.79627658845249</v>
       </c>
       <c r="F22" s="6" t="n">
-        <v>11.21474788993398</v>
+        <v>0.7176347198460232</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>88.78525211006604</v>
+        <v>99.28236528015397</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>11.21474788993398</v>
+        <v>0.7176347198460232</v>
       </c>
       <c r="I22" s="6" t="n"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>Tuna</t>
+          <t>Global</t>
         </is>
       </c>
       <c r="B23" s="6" t="n">
-        <v>5.203079</v>
+        <v>80.28050343000002</v>
       </c>
       <c r="C23" s="6" t="n">
-        <v>4.9966005</v>
+        <v>69.47670794719349</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>82.48608869170148</v>
+        <v>26.6068726388459</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>16.79627658845249</v>
+        <v>48.41272755377884</v>
       </c>
       <c r="F23" s="6" t="n">
-        <v>0.7176347198460232</v>
+        <v>24.98039980737526</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>99.28236528015397</v>
+        <v>75.01960019262474</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.7176347198460232</v>
+        <v>24.98039980737526</v>
       </c>
       <c r="I23" s="6" t="n"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>Global</t>
-        </is>
-      </c>
-      <c r="B24" s="6" t="n">
-        <v>80.28050343000002</v>
-      </c>
-      <c r="C24" s="6" t="n">
-        <v>69.45807733661159</v>
-      </c>
-      <c r="D24" s="6" t="n">
-        <v>26.64723565892969</v>
-      </c>
-      <c r="E24" s="6" t="n">
-        <v>48.37613624522655</v>
-      </c>
-      <c r="F24" s="6" t="n">
-        <v>24.97662809584376</v>
-      </c>
-      <c r="G24" s="6" t="n">
-        <v>75.02337190415625</v>
-      </c>
-      <c r="H24" s="6" t="n">
-        <v>24.97662809584376</v>
-      </c>
-      <c r="I24" s="6" t="n"/>
-    </row>
-    <row r="25">
-      <c r="A25" s="1" t="inlineStr">
-        <is>
           <t>Footnote</t>
         </is>
       </c>
-      <c r="B25" s="6" t="n"/>
-      <c r="C25" s="6" t="n"/>
-      <c r="D25" s="6" t="n"/>
-      <c r="E25" s="6" t="n"/>
-      <c r="F25" s="6" t="n"/>
-      <c r="G25" s="6" t="n"/>
-      <c r="H25" s="6" t="n"/>
-      <c r="I25" t="inlineStr">
+      <c r="B24" s="6" t="n"/>
+      <c r="C24" s="6" t="n"/>
+      <c r="D24" s="6" t="n"/>
+      <c r="E24" s="6" t="n"/>
+      <c r="F24" s="6" t="n"/>
+      <c r="G24" s="6" t="n"/>
+      <c r="H24" s="6" t="n"/>
+      <c r="I24" t="inlineStr">
         <is>
           <t>Note: Percent coverage in this sheet does not reflect reported percent coverage. For the reported percent coverage, 
 the landings of 'Deep Sea', 'Salmon', 'Tuna', and 'Sharks' are incorporated in the FAO major fishing areas 

--- a/output/aggregate_tables/status_by_landings_w_totals_area.xlsx
+++ b/output/aggregate_tables/status_by_landings_w_totals_area.xlsx
@@ -1135,7 +1135,7 @@
       <c r="I24" t="inlineStr">
         <is>
           <t>Note: Percent coverage in this sheet does not reflect reported percent coverage. For the reported percent coverage, 
-the landings of 'Deep Sea', 'Salmon', 'Tuna', and 'Sharks' are incorporated in the FAO major fishing areas 
+the landings of 'Salmon', 'Tuna', and 'Sharks' are incorporated in the FAO major fishing areas 
 from which their landings are reported. Thus, percent coverage calculated from this table will slightly different than reported elsewhere. 
 Area landings exclude landings from ISSCAAP codes 61, 62, 63, 64, 71, 72, 73, 74, 81, 82, 83, 91, 92, 93, 94, 
 except for stocks which have been incorporated in assessment.</t>

--- a/output/aggregate_tables/status_by_landings_w_totals_area.xlsx
+++ b/output/aggregate_tables/status_by_landings_w_totals_area.xlsx
@@ -1134,10 +1134,7 @@
       <c r="H24" s="6" t="n"/>
       <c r="I24" t="inlineStr">
         <is>
-          <t>Note: Percent coverage in this sheet does not reflect reported percent coverage. For the reported percent coverage, 
-the landings of 'Salmon', 'Tuna', and 'Sharks' are incorporated in the FAO major fishing areas 
-from which their landings are reported. Thus, percent coverage calculated from this table will slightly different than reported elsewhere. 
-Area landings exclude landings from ISSCAAP codes 61, 62, 63, 64, 71, 72, 73, 74, 81, 82, 83, 91, 92, 93, 94, 
+          <t>Note: Area landings exclude landings from ISSCAAP codes 61, 62, 63, 64, 71, 72, 73, 74, 81, 82, 83, 91, 92, 93, 94, 
 except for stocks which have been incorporated in assessment.</t>
         </is>
       </c>

--- a/output/aggregate_tables/status_by_landings_w_totals_area.xlsx
+++ b/output/aggregate_tables/status_by_landings_w_totals_area.xlsx
@@ -577,22 +577,22 @@
         <v>1.61573879</v>
       </c>
       <c r="C4" s="6" t="n">
-        <v>1.512277578288221</v>
+        <v>1.512299505391432</v>
       </c>
       <c r="D4" s="6" t="n">
-        <v>14.21521773880041</v>
+        <v>14.21501162979527</v>
       </c>
       <c r="E4" s="6" t="n">
-        <v>68.95707718957658</v>
+        <v>68.94878186074772</v>
       </c>
       <c r="F4" s="6" t="n">
-        <v>16.82770507162302</v>
+        <v>16.83620650945702</v>
       </c>
       <c r="G4" s="6" t="n">
-        <v>83.17229492837699</v>
+        <v>83.16379349054299</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>16.82770507162302</v>
+        <v>16.83620650945702</v>
       </c>
       <c r="I4" s="6" t="n"/>
     </row>
@@ -685,22 +685,22 @@
         <v>1.10877186</v>
       </c>
       <c r="C8" s="6" t="n">
-        <v>0.7436210511818182</v>
+        <v>0.7398957966371682</v>
       </c>
       <c r="D8" s="6" t="n">
-        <v>5.40321416957853</v>
+        <v>5.389935808021984</v>
       </c>
       <c r="E8" s="6" t="n">
-        <v>52.75092859445264</v>
+        <v>53.64100303270093</v>
       </c>
       <c r="F8" s="6" t="n">
-        <v>41.84585723596884</v>
+        <v>40.96906115927708</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>58.15414276403117</v>
+        <v>59.03093884072291</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>41.84585723596884</v>
+        <v>40.96906115927708</v>
       </c>
       <c r="I8" s="6" t="n"/>
     </row>
@@ -931,19 +931,19 @@
         <v>0.32778533</v>
       </c>
       <c r="D17" s="6" t="n">
-        <v>3.127263941611889</v>
+        <v>3.12626543235536</v>
       </c>
       <c r="E17" s="6" t="n">
-        <v>93.05610425469258</v>
+        <v>93.05288746522015</v>
       </c>
       <c r="F17" s="6" t="n">
-        <v>3.81663180369553</v>
+        <v>3.820847102424483</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>96.18336819630447</v>
+        <v>96.17915289757551</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>3.81663180369553</v>
+        <v>3.820847102424483</v>
       </c>
       <c r="I17" s="6" t="n"/>
     </row>
@@ -1100,22 +1100,22 @@
         <v>80.28050343000002</v>
       </c>
       <c r="C23" s="6" t="n">
-        <v>69.47670794719349</v>
+        <v>69.47300461975205</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>26.6068726388459</v>
+        <v>26.60785508826232</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>48.41272755377884</v>
+        <v>48.42178506433056</v>
       </c>
       <c r="F23" s="6" t="n">
-        <v>24.98039980737526</v>
+        <v>24.97035984740713</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>75.01960019262474</v>
+        <v>75.02964015259288</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>24.98039980737526</v>
+        <v>24.97035984740713</v>
       </c>
       <c r="I23" s="6" t="n"/>
     </row>

--- a/output/aggregate_tables/status_by_landings_w_totals_area.xlsx
+++ b/output/aggregate_tables/status_by_landings_w_totals_area.xlsx
@@ -628,7 +628,7 @@
         <v>31</v>
       </c>
       <c r="B6" s="6" t="n">
-        <v>1.113236270000001</v>
+        <v>1.11323627</v>
       </c>
       <c r="C6" s="6" t="n">
         <v>0.8486084899999999</v>
@@ -658,22 +658,22 @@
         <v>4.83827694</v>
       </c>
       <c r="C7" s="6" t="n">
-        <v>3.566222920002001</v>
+        <v>3.566222920002</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>34.56130347477666</v>
+        <v>34.75471983898068</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>25.35833807054252</v>
+        <v>29.02453657478259</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>40.08035845468081</v>
+        <v>36.22074358623672</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>59.91964154531919</v>
+        <v>63.77925641376328</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>40.08035845468081</v>
+        <v>36.22074358623672</v>
       </c>
       <c r="I7" s="6" t="n"/>
     </row>
@@ -763,7 +763,7 @@
         <v>51</v>
       </c>
       <c r="B11" s="6" t="n">
-        <v>4.579780390000003</v>
+        <v>4.57978039</v>
       </c>
       <c r="C11" s="6" t="n">
         <v>4.324561374</v>
@@ -790,7 +790,7 @@
         <v>57</v>
       </c>
       <c r="B12" s="6" t="n">
-        <v>5.56918511</v>
+        <v>5.569185109999999</v>
       </c>
       <c r="C12" s="6" t="n">
         <v>5.47975862077466</v>
@@ -898,7 +898,7 @@
         <v>77</v>
       </c>
       <c r="B16" s="6" t="n">
-        <v>1.544985800000001</v>
+        <v>1.5449858</v>
       </c>
       <c r="C16" s="6" t="n">
         <v>1.324661300862069</v>
@@ -925,7 +925,7 @@
         <v>81</v>
       </c>
       <c r="B17" s="6" t="n">
-        <v>0.3651133800000001</v>
+        <v>0.36511338</v>
       </c>
       <c r="C17" s="6" t="n">
         <v>0.32778533</v>
@@ -1100,22 +1100,22 @@
         <v>80.28050343000002</v>
       </c>
       <c r="C23" s="6" t="n">
-        <v>69.47300461975205</v>
+        <v>69.47300461975203</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>26.60785508826232</v>
+        <v>26.61778363352825</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>48.42178506433056</v>
+        <v>48.60998019431894</v>
       </c>
       <c r="F23" s="6" t="n">
-        <v>24.97035984740713</v>
+        <v>24.7722361721528</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>75.02964015259288</v>
+        <v>75.22776382784718</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>24.97035984740713</v>
+        <v>24.7722361721528</v>
       </c>
       <c r="I23" s="6" t="n"/>
     </row>

--- a/output/aggregate_tables/status_by_landings_w_totals_area.xlsx
+++ b/output/aggregate_tables/status_by_landings_w_totals_area.xlsx
@@ -658,22 +658,22 @@
         <v>4.83827694</v>
       </c>
       <c r="C7" s="6" t="n">
-        <v>3.566222920002</v>
+        <v>3.566222870002</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>34.75471983898068</v>
+        <v>34.75472032625702</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>29.02453657478259</v>
+        <v>29.02453698171925</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>36.22074358623672</v>
+        <v>36.22074269202373</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>63.77925641376328</v>
+        <v>63.77925730797627</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>36.22074358623672</v>
+        <v>36.22074269202373</v>
       </c>
       <c r="I7" s="6" t="n"/>
     </row>
@@ -901,22 +901,22 @@
         <v>1.5449858</v>
       </c>
       <c r="C16" s="6" t="n">
-        <v>1.324661300862069</v>
+        <v>1.324849795862069</v>
       </c>
       <c r="D16" s="6" t="n">
-        <v>43.27108330943184</v>
+        <v>43.27915450149072</v>
       </c>
       <c r="E16" s="6" t="n">
-        <v>38.29205176940727</v>
+        <v>38.28660371007192</v>
       </c>
       <c r="F16" s="6" t="n">
-        <v>18.43686492116091</v>
+        <v>18.43424178843736</v>
       </c>
       <c r="G16" s="6" t="n">
-        <v>81.56313507883911</v>
+        <v>81.56575821156264</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>18.43686492116091</v>
+        <v>18.43424178843736</v>
       </c>
       <c r="I16" s="6" t="n"/>
     </row>
@@ -1042,22 +1042,22 @@
         <v>0.08399280000000002</v>
       </c>
       <c r="C21" s="9" t="n">
-        <v>0.05364998000000001</v>
+        <v>0.048410275</v>
       </c>
       <c r="D21" s="6" t="n">
-        <v>49.92385831271513</v>
+        <v>44.50384758194412</v>
       </c>
       <c r="E21" s="6" t="n">
-        <v>38.86139379735091</v>
+        <v>43.06757191525973</v>
       </c>
       <c r="F21" s="6" t="n">
-        <v>11.21474788993398</v>
+        <v>12.42858050279615</v>
       </c>
       <c r="G21" s="6" t="n">
-        <v>88.78525211006604</v>
+        <v>87.57141949720386</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>11.21474788993398</v>
+        <v>12.42858050279615</v>
       </c>
       <c r="I21" s="6" t="n"/>
     </row>
@@ -1100,22 +1100,22 @@
         <v>80.28050343000002</v>
       </c>
       <c r="C23" s="6" t="n">
-        <v>69.47300461975203</v>
+        <v>69.46795335975204</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>26.61778363352825</v>
+        <v>26.61244782562956</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>48.60998019431894</v>
+        <v>48.61351479749467</v>
       </c>
       <c r="F23" s="6" t="n">
-        <v>24.7722361721528</v>
+        <v>24.77403737687578</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>75.22776382784718</v>
+        <v>75.22596262312422</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>24.7722361721528</v>
+        <v>24.77403737687578</v>
       </c>
       <c r="I23" s="6" t="n"/>
     </row>

--- a/output/aggregate_tables/status_by_landings_w_totals_area.xlsx
+++ b/output/aggregate_tables/status_by_landings_w_totals_area.xlsx
@@ -15,9 +15,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="#,##0.000"/>
-  </numFmts>
+  <numFmts count="0"/>
   <fonts count="2">
     <font>
       <name val="Calibri"/>
@@ -114,7 +112,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
@@ -126,11 +124,7 @@
     </xf>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="4" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -570,465 +564,495 @@
       <c r="I3" s="6" t="n"/>
     </row>
     <row r="4">
-      <c r="A4" s="7" t="n">
-        <v>21</v>
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Area 21</t>
+        </is>
       </c>
       <c r="B4" s="6" t="n">
-        <v>1.61573879</v>
+        <v>1.61571179</v>
       </c>
       <c r="C4" s="6" t="n">
-        <v>1.512299505391432</v>
+        <v>1.4523022766666</v>
       </c>
       <c r="D4" s="6" t="n">
-        <v>14.21501162979527</v>
+        <v>14.80225942096207</v>
       </c>
       <c r="E4" s="6" t="n">
-        <v>68.94878186074772</v>
+        <v>69.85692867411942</v>
       </c>
       <c r="F4" s="6" t="n">
-        <v>16.83620650945702</v>
+        <v>15.34081190491851</v>
       </c>
       <c r="G4" s="6" t="n">
-        <v>83.16379349054299</v>
+        <v>84.65918809508149</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>16.83620650945702</v>
+        <v>15.34081190491851</v>
       </c>
       <c r="I4" s="6" t="n"/>
     </row>
     <row r="5">
-      <c r="A5" s="7" t="n">
-        <v>27</v>
+      <c r="A5" s="1" t="inlineStr">
+        <is>
+          <t>Area 27</t>
+        </is>
       </c>
       <c r="B5" s="6" t="n">
-        <v>8.03286593</v>
+        <v>8.03279962</v>
       </c>
       <c r="C5" s="6" t="n">
-        <v>7.334160693085714</v>
+        <v>7.32892053</v>
       </c>
       <c r="D5" s="6" t="n">
-        <v>3.560106383556024</v>
+        <v>3.562651852288556</v>
       </c>
       <c r="E5" s="6" t="n">
-        <v>83.02398792990367</v>
+        <v>83.01185011623407</v>
       </c>
       <c r="F5" s="6" t="n">
-        <v>13.41590568654031</v>
+        <v>13.42549803147737</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>86.58409431345969</v>
+        <v>86.57450196852263</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>13.41590568654031</v>
+        <v>13.42549803147737</v>
       </c>
       <c r="I5" s="6" t="n"/>
     </row>
     <row r="6">
-      <c r="A6" s="7" t="n">
-        <v>31</v>
+      <c r="A6" s="1" t="inlineStr">
+        <is>
+          <t>Area 31</t>
+        </is>
       </c>
       <c r="B6" s="6" t="n">
-        <v>1.11323627</v>
+        <v>1.11276046</v>
       </c>
       <c r="C6" s="6" t="n">
-        <v>0.8486084899999999</v>
+        <v>0.7441827299999999</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>66.81238912731217</v>
+        <v>70.94956036620307</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>8.99945049165663</v>
+        <v>6.880884177898364</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>24.18816038103119</v>
+        <v>22.16955545589856</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>75.8118396189688</v>
+        <v>77.83044454410144</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>24.18816038103119</v>
+        <v>22.16955545589856</v>
       </c>
       <c r="I6" s="6" t="n"/>
     </row>
     <row r="7">
-      <c r="A7" s="7" t="n">
-        <v>34</v>
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Area 34</t>
+        </is>
       </c>
       <c r="B7" s="6" t="n">
-        <v>4.83827694</v>
+        <v>4.83828389</v>
       </c>
       <c r="C7" s="6" t="n">
-        <v>3.566222870002</v>
+        <v>3.333941480002</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>34.75472032625702</v>
+        <v>36.04195041673638</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>29.02453698171925</v>
+        <v>28.94037208699331</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>36.22074269202373</v>
+        <v>35.01767749627032</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>63.77925730797627</v>
+        <v>64.98232250372969</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>36.22074269202373</v>
+        <v>35.01767749627032</v>
       </c>
       <c r="I7" s="6" t="n"/>
     </row>
     <row r="8">
-      <c r="A8" s="7" t="n">
-        <v>37</v>
+      <c r="A8" s="1" t="inlineStr">
+        <is>
+          <t>Area 37</t>
+        </is>
       </c>
       <c r="B8" s="6" t="n">
-        <v>1.10877186</v>
+        <v>1.10877228</v>
       </c>
       <c r="C8" s="6" t="n">
-        <v>0.7398957966371682</v>
+        <v>0.8050351500000001</v>
       </c>
       <c r="D8" s="6" t="n">
-        <v>5.389935808021984</v>
+        <v>5.307988846238611</v>
       </c>
       <c r="E8" s="6" t="n">
-        <v>53.64100303270093</v>
+        <v>49.1264353287182</v>
       </c>
       <c r="F8" s="6" t="n">
-        <v>40.96906115927708</v>
+        <v>45.5655758250432</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>59.03093884072291</v>
+        <v>54.43442417495681</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>40.96906115927708</v>
+        <v>45.5655758250432</v>
       </c>
       <c r="I8" s="6" t="n"/>
     </row>
     <row r="9">
-      <c r="A9" s="7" t="n">
-        <v>41</v>
+      <c r="A9" s="1" t="inlineStr">
+        <is>
+          <t>Area 41</t>
+        </is>
       </c>
       <c r="B9" s="6" t="n">
         <v>1.97234068</v>
       </c>
       <c r="C9" s="6" t="n">
-        <v>1.64970041</v>
+        <v>1.61708172</v>
       </c>
       <c r="D9" s="6" t="n">
-        <v>2.258387509579761</v>
+        <v>1.990938784643311</v>
       </c>
       <c r="E9" s="6" t="n">
-        <v>66.76071367383751</v>
+        <v>67.23791219554505</v>
       </c>
       <c r="F9" s="6" t="n">
-        <v>30.98089881658274</v>
+        <v>30.77114901981165</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>69.01910118341728</v>
+        <v>69.22885098018835</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>30.98089881658274</v>
+        <v>30.77114901981165</v>
       </c>
       <c r="I9" s="6" t="n"/>
     </row>
     <row r="10">
-      <c r="A10" s="7" t="n">
-        <v>47</v>
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Area 47</t>
+        </is>
       </c>
       <c r="B10" s="6" t="n">
-        <v>1.42110916</v>
+        <v>1.40545456</v>
       </c>
       <c r="C10" s="6" t="n">
-        <v>1.35239311</v>
+        <v>1.31275885</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>6.332521257555844</v>
+        <v>5.916574091273504</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>39.53851405642543</v>
+        <v>37.95078743092397</v>
       </c>
       <c r="F10" s="6" t="n">
-        <v>54.12896468601873</v>
+        <v>56.13263847780252</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>45.87103531398127</v>
+        <v>43.86736152219747</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>54.12896468601873</v>
+        <v>56.13263847780252</v>
       </c>
       <c r="I10" s="6" t="n"/>
     </row>
     <row r="11">
-      <c r="A11" s="7" t="n">
-        <v>51</v>
+      <c r="A11" s="1" t="inlineStr">
+        <is>
+          <t>Area 48,58,88</t>
+        </is>
       </c>
       <c r="B11" s="6" t="n">
-        <v>4.57978039</v>
+        <v>0.3866574800000001</v>
       </c>
       <c r="C11" s="6" t="n">
-        <v>4.324561374</v>
+        <v>0.38501975</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>25.99140387354132</v>
+        <v>98.76864146081358</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>44.04745699154409</v>
-      </c>
-      <c r="F11" s="6" t="n">
-        <v>29.9611391349146</v>
+        <v>1.231358539186409</v>
+      </c>
+      <c r="F11" s="7" t="n">
+        <v>0</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>70.03886086508541</v>
-      </c>
-      <c r="H11" s="6" t="n">
-        <v>29.9611391349146</v>
+        <v>99.99999999999999</v>
+      </c>
+      <c r="H11" s="7" t="n">
+        <v>0</v>
       </c>
       <c r="I11" s="6" t="n"/>
     </row>
     <row r="12">
-      <c r="A12" s="7" t="n">
-        <v>57</v>
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>Area 51</t>
+        </is>
       </c>
       <c r="B12" s="6" t="n">
-        <v>5.569185109999999</v>
+        <v>4.572522480000001</v>
       </c>
       <c r="C12" s="6" t="n">
-        <v>5.47975862077466</v>
+        <v>4.317832199</v>
       </c>
       <c r="D12" s="6" t="n">
-        <v>14.93902192521486</v>
+        <v>22.63693111870174</v>
       </c>
       <c r="E12" s="6" t="n">
-        <v>67.50435457160448</v>
+        <v>37.95617950157607</v>
       </c>
       <c r="F12" s="6" t="n">
-        <v>17.55662350318067</v>
+        <v>39.4068893797222</v>
       </c>
       <c r="G12" s="6" t="n">
-        <v>82.44337649681934</v>
+        <v>60.59311062027781</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>17.55662350318067</v>
+        <v>39.4068893797222</v>
       </c>
       <c r="I12" s="6" t="n"/>
     </row>
     <row r="13">
-      <c r="A13" s="7" t="n">
-        <v>61</v>
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Area 57</t>
+        </is>
       </c>
       <c r="B13" s="6" t="n">
+        <v>5.550435869999999</v>
+      </c>
+      <c r="C13" s="6" t="n">
+        <v>3.86234734577466</v>
+      </c>
+      <c r="D13" s="6" t="n">
+        <v>11.6785168296254</v>
+      </c>
+      <c r="E13" s="6" t="n">
+        <v>73.56344463189845</v>
+      </c>
+      <c r="F13" s="6" t="n">
+        <v>14.75803853847617</v>
+      </c>
+      <c r="G13" s="6" t="n">
+        <v>85.24196146152384</v>
+      </c>
+      <c r="H13" s="6" t="n">
+        <v>14.75803853847617</v>
+      </c>
+      <c r="I13" s="6" t="n"/>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="inlineStr">
+        <is>
+          <t>Area 61</t>
+        </is>
+      </c>
+      <c r="B14" s="6" t="n">
         <v>18.88724254</v>
       </c>
-      <c r="C13" s="6" t="n">
+      <c r="C14" s="6" t="n">
         <v>14.379796609999</v>
       </c>
-      <c r="D13" s="6" t="n">
-        <v>31.35428380642543</v>
-      </c>
-      <c r="E13" s="6" t="n">
-        <v>41.27778074600292</v>
-      </c>
-      <c r="F13" s="6" t="n">
-        <v>27.36793544757166</v>
-      </c>
-      <c r="G13" s="6" t="n">
-        <v>72.63206455242835</v>
-      </c>
-      <c r="H13" s="6" t="n">
-        <v>27.36793544757166</v>
-      </c>
-      <c r="I13" s="6" t="n"/>
-    </row>
-    <row r="14">
-      <c r="A14" s="7" t="n">
-        <v>67</v>
-      </c>
-      <c r="B14" s="6" t="n">
-        <v>2.53299854</v>
-      </c>
-      <c r="C14" s="6" t="n">
-        <v>2.490199989999999</v>
-      </c>
       <c r="D14" s="6" t="n">
-        <v>28.37653045781574</v>
+        <v>25.13025641063614</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>70.44263361813991</v>
+        <v>35.27604004292039</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>1.180835924044367</v>
+        <v>39.59370354644347</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>98.81916407595565</v>
+        <v>60.40629645355654</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>1.180835924044367</v>
+        <v>39.59370354644347</v>
       </c>
       <c r="I14" s="6" t="n"/>
     </row>
     <row r="15">
-      <c r="A15" s="7" t="n">
-        <v>71</v>
+      <c r="A15" s="1" t="inlineStr">
+        <is>
+          <t>Area 67 - Other Stocks</t>
+        </is>
       </c>
       <c r="B15" s="6" t="n">
-        <v>11.0806615</v>
+        <v>2.53300354</v>
       </c>
       <c r="C15" s="6" t="n">
-        <v>9.088031675</v>
+        <v>2.44248946</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>22.93056935485755</v>
+        <v>28.01784339225146</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>26.57459035111507</v>
+        <v>70.92687970838661</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>50.49484029402739</v>
+        <v>1.055276899361936</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>49.50515970597262</v>
+        <v>98.94472310063807</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>50.49484029402739</v>
+        <v>1.055276899361936</v>
       </c>
       <c r="I15" s="6" t="n"/>
     </row>
     <row r="16">
-      <c r="A16" s="7" t="n">
-        <v>77</v>
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>Area 67 - Salmon</t>
+        </is>
       </c>
       <c r="B16" s="6" t="n">
-        <v>1.5449858</v>
+        <v>0.375003</v>
       </c>
       <c r="C16" s="6" t="n">
-        <v>1.324849795862069</v>
+        <v>0.375009</v>
       </c>
       <c r="D16" s="6" t="n">
-        <v>43.27915450149072</v>
+        <v>19.7353802540078</v>
       </c>
       <c r="E16" s="6" t="n">
-        <v>38.28660371007192</v>
+        <v>70.87896192485682</v>
       </c>
       <c r="F16" s="6" t="n">
-        <v>18.43424178843736</v>
+        <v>9.38565782113537</v>
       </c>
       <c r="G16" s="6" t="n">
-        <v>81.56575821156264</v>
+        <v>90.61434217886463</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>18.43424178843736</v>
+        <v>9.38565782113537</v>
       </c>
       <c r="I16" s="6" t="n"/>
     </row>
     <row r="17">
-      <c r="A17" s="7" t="n">
-        <v>81</v>
+      <c r="A17" s="1" t="inlineStr">
+        <is>
+          <t>Area 71</t>
+        </is>
       </c>
       <c r="B17" s="6" t="n">
-        <v>0.36511338</v>
+        <v>11.08002493</v>
       </c>
       <c r="C17" s="6" t="n">
-        <v>0.32778533</v>
+        <v>5.60503581</v>
       </c>
       <c r="D17" s="6" t="n">
-        <v>3.12626543235536</v>
+        <v>22.53060390711235</v>
       </c>
       <c r="E17" s="6" t="n">
-        <v>93.05288746522015</v>
+        <v>24.39789750905031</v>
       </c>
       <c r="F17" s="6" t="n">
-        <v>3.820847102424483</v>
+        <v>53.07149858383732</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>96.17915289757551</v>
+        <v>46.92850141616267</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>3.820847102424483</v>
+        <v>53.07149858383732</v>
       </c>
       <c r="I17" s="6" t="n"/>
     </row>
     <row r="18">
-      <c r="A18" s="7" t="n">
-        <v>87</v>
+      <c r="A18" s="1" t="inlineStr">
+        <is>
+          <t>Area 77</t>
+        </is>
       </c>
       <c r="B18" s="6" t="n">
-        <v>9.569458259999999</v>
+        <v>1.54069627</v>
       </c>
       <c r="C18" s="6" t="n">
-        <v>9.244649563999999</v>
+        <v>1.29410505</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>17.52496133821459</v>
+        <v>44.14287696843694</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>63.19024740213378</v>
+        <v>37.96299080166693</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>19.28479125965163</v>
+        <v>17.89413222989614</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>80.71520874034837</v>
+        <v>82.10586777010386</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>19.28479125965163</v>
+        <v>17.89413222989614</v>
       </c>
       <c r="I18" s="6" t="n"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>48,58,88</t>
+          <t>Area 81</t>
         </is>
       </c>
       <c r="B19" s="6" t="n">
-        <v>0.38665748</v>
+        <v>0.3627844</v>
       </c>
       <c r="C19" s="6" t="n">
-        <v>0.38501975</v>
+        <v>0.32335747</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>98.47978014980617</v>
+        <v>2.381487326649866</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>1.520219850193832</v>
-      </c>
-      <c r="F19" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="G19" s="8" t="n">
-        <v>100</v>
-      </c>
-      <c r="H19" s="8" t="n">
-        <v>0</v>
+        <v>93.82770087067527</v>
+      </c>
+      <c r="F19" s="6" t="n">
+        <v>3.790811802674839</v>
+      </c>
+      <c r="G19" s="6" t="n">
+        <v>96.20918819732513</v>
+      </c>
+      <c r="H19" s="6" t="n">
+        <v>3.790811802674839</v>
       </c>
       <c r="I19" s="6" t="n"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>Salmon</t>
+          <t>Area 87</t>
         </is>
       </c>
       <c r="B20" s="6" t="n">
-        <v>0.375009</v>
+        <v>9.569245629999999</v>
       </c>
       <c r="C20" s="6" t="n">
-        <v>0.375009</v>
+        <v>9.263617160000001</v>
       </c>
       <c r="D20" s="6" t="n">
-        <v>19.7353802540078</v>
+        <v>17.48907833691633</v>
       </c>
       <c r="E20" s="6" t="n">
-        <v>70.87896192485682</v>
+        <v>62.76258548396102</v>
       </c>
       <c r="F20" s="6" t="n">
-        <v>9.38565782113537</v>
+        <v>19.74833617912266</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>90.61434217886463</v>
+        <v>80.25166382087734</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>9.38565782113537</v>
+        <v>19.74833617912266</v>
       </c>
       <c r="I20" s="6" t="n"/>
     </row>
@@ -1038,26 +1062,26 @@
           <t>Sharks</t>
         </is>
       </c>
-      <c r="B21" s="9" t="n">
-        <v>0.08399280000000002</v>
-      </c>
-      <c r="C21" s="9" t="n">
-        <v>0.048410275</v>
+      <c r="B21" s="6" t="n">
+        <v>0.13368501</v>
+      </c>
+      <c r="C21" s="6" t="n">
+        <v>0.12343087</v>
       </c>
       <c r="D21" s="6" t="n">
-        <v>44.50384758194412</v>
+        <v>43.18584564785131</v>
       </c>
       <c r="E21" s="6" t="n">
-        <v>43.06757191525973</v>
+        <v>38.10630193240962</v>
       </c>
       <c r="F21" s="6" t="n">
-        <v>12.42858050279615</v>
+        <v>18.70785241973908</v>
       </c>
       <c r="G21" s="6" t="n">
-        <v>87.57141949720386</v>
+        <v>81.29214758026093</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>12.42858050279615</v>
+        <v>18.70785241973908</v>
       </c>
       <c r="I21" s="6" t="n"/>
     </row>
@@ -1097,25 +1121,25 @@
         </is>
       </c>
       <c r="B23" s="6" t="n">
-        <v>80.28050343000002</v>
+        <v>80.28050343</v>
       </c>
       <c r="C23" s="6" t="n">
-        <v>69.46795335975204</v>
+        <v>63.96286396144227</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>26.61244782562956</v>
+        <v>25.28937267958355</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>48.61351479749467</v>
+        <v>47.70535135074126</v>
       </c>
       <c r="F23" s="6" t="n">
-        <v>24.77403737687578</v>
+        <v>27.00527596967519</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>75.22596262312422</v>
+        <v>72.99472403032482</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>24.77403737687578</v>
+        <v>27.00527596967519</v>
       </c>
       <c r="I23" s="6" t="n"/>
     </row>

--- a/output/aggregate_tables/status_by_landings_w_totals_area.xlsx
+++ b/output/aggregate_tables/status_by_landings_w_totals_area.xlsx
@@ -573,22 +573,22 @@
         <v>1.61571179</v>
       </c>
       <c r="C4" s="6" t="n">
-        <v>1.4523022766666</v>
+        <v>1.452884758461538</v>
       </c>
       <c r="D4" s="6" t="n">
-        <v>14.80225942096207</v>
+        <v>14.78917725470217</v>
       </c>
       <c r="E4" s="6" t="n">
-        <v>69.85692867411942</v>
+        <v>69.8470528457707</v>
       </c>
       <c r="F4" s="6" t="n">
-        <v>15.34081190491851</v>
+        <v>15.36376989952713</v>
       </c>
       <c r="G4" s="6" t="n">
-        <v>84.65918809508149</v>
+        <v>84.63623010047289</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>15.34081190491851</v>
+        <v>15.36376989952713</v>
       </c>
       <c r="I4" s="6" t="n"/>
     </row>
@@ -599,25 +599,25 @@
         </is>
       </c>
       <c r="B5" s="6" t="n">
-        <v>8.03279962</v>
+        <v>8.03279034</v>
       </c>
       <c r="C5" s="6" t="n">
-        <v>7.32892053</v>
+        <v>7.329011862192983</v>
       </c>
       <c r="D5" s="6" t="n">
-        <v>3.562651852288556</v>
+        <v>3.562607455470455</v>
       </c>
       <c r="E5" s="6" t="n">
-        <v>83.01185011623407</v>
+        <v>83.01206181803137</v>
       </c>
       <c r="F5" s="6" t="n">
-        <v>13.42549803147737</v>
+        <v>13.42533072649818</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>86.57450196852263</v>
+        <v>86.57466927350183</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>13.42549803147737</v>
+        <v>13.42533072649818</v>
       </c>
       <c r="I5" s="6" t="n"/>
     </row>
@@ -628,25 +628,25 @@
         </is>
       </c>
       <c r="B6" s="6" t="n">
-        <v>1.11276046</v>
+        <v>1.11275983</v>
       </c>
       <c r="C6" s="6" t="n">
-        <v>0.7441827299999999</v>
+        <v>0.7875169576339286</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>70.94956036620307</v>
+        <v>67.41422215737725</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>6.880884177898364</v>
+        <v>10.61030334214265</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>22.16955545589856</v>
+        <v>21.97547450048009</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>77.83044454410144</v>
+        <v>78.02452549951991</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>22.16955545589856</v>
+        <v>21.97547450048009</v>
       </c>
       <c r="I6" s="6" t="n"/>
     </row>
@@ -660,22 +660,22 @@
         <v>4.83828389</v>
       </c>
       <c r="C7" s="6" t="n">
-        <v>3.333941480002</v>
+        <v>3.370902944076087</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>36.04195041673638</v>
+        <v>35.64762620614589</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>28.94037208699331</v>
+        <v>29.94298223981509</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>35.01767749627032</v>
+        <v>34.40939155403901</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>64.98232250372969</v>
+        <v>65.59060844596098</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>35.01767749627032</v>
+        <v>34.40939155403901</v>
       </c>
       <c r="I7" s="6" t="n"/>
     </row>
@@ -689,22 +689,22 @@
         <v>1.10877228</v>
       </c>
       <c r="C8" s="6" t="n">
-        <v>0.8050351500000001</v>
+        <v>0.8144592167054264</v>
       </c>
       <c r="D8" s="6" t="n">
-        <v>5.307988846238611</v>
+        <v>5.175443209067041</v>
       </c>
       <c r="E8" s="6" t="n">
-        <v>49.1264353287182</v>
+        <v>51.73877639973622</v>
       </c>
       <c r="F8" s="6" t="n">
-        <v>45.5655758250432</v>
+        <v>43.08578039119675</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>54.43442417495681</v>
+        <v>56.91421960880326</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>45.5655758250432</v>
+        <v>43.08578039119675</v>
       </c>
       <c r="I8" s="6" t="n"/>
     </row>
@@ -718,22 +718,22 @@
         <v>1.97234068</v>
       </c>
       <c r="C9" s="6" t="n">
-        <v>1.61708172</v>
+        <v>1.6769927945</v>
       </c>
       <c r="D9" s="6" t="n">
-        <v>1.990938784643311</v>
+        <v>2.31022930345436</v>
       </c>
       <c r="E9" s="6" t="n">
-        <v>67.23791219554505</v>
+        <v>66.07998198856063</v>
       </c>
       <c r="F9" s="6" t="n">
-        <v>30.77114901981165</v>
+        <v>31.60978870798501</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>69.22885098018835</v>
+        <v>68.390211292015</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>30.77114901981165</v>
+        <v>31.60978870798501</v>
       </c>
       <c r="I9" s="6" t="n"/>
     </row>
@@ -747,22 +747,22 @@
         <v>1.40545456</v>
       </c>
       <c r="C10" s="6" t="n">
-        <v>1.31275885</v>
+        <v>1.31510813163924</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>5.916574091273504</v>
+        <v>5.930121452127889</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>37.95078743092397</v>
+        <v>37.89244773175144</v>
       </c>
       <c r="F10" s="6" t="n">
-        <v>56.13263847780252</v>
+        <v>56.17743081612067</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>43.86736152219747</v>
+        <v>43.82256918387932</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>56.13263847780252</v>
+        <v>56.17743081612067</v>
       </c>
       <c r="I10" s="6" t="n"/>
     </row>
@@ -805,22 +805,22 @@
         <v>4.572522480000001</v>
       </c>
       <c r="C12" s="6" t="n">
-        <v>4.317832199</v>
+        <v>3.47095585085223</v>
       </c>
       <c r="D12" s="6" t="n">
-        <v>22.63693111870174</v>
+        <v>25.6999608568784</v>
       </c>
       <c r="E12" s="6" t="n">
-        <v>37.95617950157607</v>
+        <v>44.94888757467277</v>
       </c>
       <c r="F12" s="6" t="n">
-        <v>39.4068893797222</v>
+        <v>29.35115156844882</v>
       </c>
       <c r="G12" s="6" t="n">
-        <v>60.59311062027781</v>
+        <v>70.64884843155117</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>39.4068893797222</v>
+        <v>29.35115156844882</v>
       </c>
       <c r="I12" s="6" t="n"/>
     </row>
@@ -831,25 +831,25 @@
         </is>
       </c>
       <c r="B13" s="6" t="n">
-        <v>5.550435869999999</v>
+        <v>5.5459051</v>
       </c>
       <c r="C13" s="6" t="n">
-        <v>3.86234734577466</v>
+        <v>3.63933884152864</v>
       </c>
       <c r="D13" s="6" t="n">
-        <v>11.6785168296254</v>
+        <v>9.278341356044031</v>
       </c>
       <c r="E13" s="6" t="n">
-        <v>73.56344463189845</v>
+        <v>73.64863449203855</v>
       </c>
       <c r="F13" s="6" t="n">
-        <v>14.75803853847617</v>
+        <v>17.07302415191741</v>
       </c>
       <c r="G13" s="6" t="n">
-        <v>85.24196146152384</v>
+        <v>82.92697584808258</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>14.75803853847617</v>
+        <v>17.07302415191741</v>
       </c>
       <c r="I13" s="6" t="n"/>
     </row>
@@ -863,62 +863,62 @@
         <v>18.88724254</v>
       </c>
       <c r="C14" s="6" t="n">
-        <v>14.379796609999</v>
+        <v>12.043478732</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>25.13025641063614</v>
+        <v>30.45835901571485</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>35.27604004292039</v>
+        <v>43.21395724358334</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>39.59370354644347</v>
+        <v>26.3276837407018</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>60.40629645355654</v>
+        <v>73.6723162592982</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>39.59370354644347</v>
+        <v>26.3276837407018</v>
       </c>
       <c r="I14" s="6" t="n"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>Area 67 - Other Stocks</t>
+          <t>Area 67</t>
         </is>
       </c>
       <c r="B15" s="6" t="n">
-        <v>2.53300354</v>
+        <v>2.53299754</v>
       </c>
       <c r="C15" s="6" t="n">
-        <v>2.44248946</v>
+        <v>2.438330217339743</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>28.01784339225146</v>
+        <v>27.92220335605353</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>70.92687970838661</v>
+        <v>71.07840539460011</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>1.055276899361936</v>
+        <v>0.9993912493463557</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>98.94472310063807</v>
+        <v>99.00060875065364</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>1.055276899361936</v>
+        <v>0.9993912493463557</v>
       </c>
       <c r="I15" s="6" t="n"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Area 67 - Salmon</t>
+          <t>Area 67 - Pacific Salmon</t>
         </is>
       </c>
       <c r="B16" s="6" t="n">
-        <v>0.375003</v>
+        <v>0.375009</v>
       </c>
       <c r="C16" s="6" t="n">
         <v>0.375009</v>
@@ -947,25 +947,25 @@
         </is>
       </c>
       <c r="B17" s="6" t="n">
-        <v>11.08002493</v>
+        <v>11.07836851</v>
       </c>
       <c r="C17" s="6" t="n">
-        <v>5.60503581</v>
+        <v>4.543082273281493</v>
       </c>
       <c r="D17" s="6" t="n">
-        <v>22.53060390711235</v>
+        <v>22.15505684525351</v>
       </c>
       <c r="E17" s="6" t="n">
-        <v>24.39789750905031</v>
+        <v>22.79836957709453</v>
       </c>
       <c r="F17" s="6" t="n">
-        <v>53.07149858383732</v>
+        <v>55.04657357765197</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>46.92850141616267</v>
+        <v>44.95342642234804</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>53.07149858383732</v>
+        <v>55.04657357765197</v>
       </c>
       <c r="I17" s="6" t="n"/>
     </row>
@@ -976,25 +976,25 @@
         </is>
       </c>
       <c r="B18" s="6" t="n">
-        <v>1.54069627</v>
+        <v>1.54069426</v>
       </c>
       <c r="C18" s="6" t="n">
-        <v>1.29410505</v>
+        <v>1.304333205138889</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>44.14287696843694</v>
+        <v>43.3800318111442</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>37.96299080166693</v>
+        <v>37.78640051151319</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>17.89413222989614</v>
+        <v>18.83356767734262</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>82.10586777010386</v>
+        <v>81.16643232265739</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>17.89413222989614</v>
+        <v>18.83356767734262</v>
       </c>
       <c r="I18" s="6" t="n"/>
     </row>
@@ -1008,22 +1008,22 @@
         <v>0.3627844</v>
       </c>
       <c r="C19" s="6" t="n">
-        <v>0.32335747</v>
+        <v>0.2987189156960587</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>2.381487326649866</v>
+        <v>2.717606459648396</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>93.82770087067527</v>
+        <v>92.9802613568873</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>3.790811802674839</v>
+        <v>4.302132183464314</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>96.20918819732513</v>
+        <v>95.69786781653569</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>3.790811802674839</v>
+        <v>4.302132183464314</v>
       </c>
       <c r="I19" s="6" t="n"/>
     </row>
@@ -1037,22 +1037,22 @@
         <v>9.569245629999999</v>
       </c>
       <c r="C20" s="6" t="n">
-        <v>9.263617160000001</v>
+        <v>9.169881925956791</v>
       </c>
       <c r="D20" s="6" t="n">
-        <v>17.48907833691633</v>
+        <v>17.66785303263738</v>
       </c>
       <c r="E20" s="6" t="n">
-        <v>62.76258548396102</v>
+        <v>63.40503144859446</v>
       </c>
       <c r="F20" s="6" t="n">
-        <v>19.74833617912266</v>
+        <v>18.92711551876817</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>80.25166382087734</v>
+        <v>81.07288448123184</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>19.74833617912266</v>
+        <v>18.92711551876817</v>
       </c>
       <c r="I20" s="6" t="n"/>
     </row>
@@ -1063,25 +1063,25 @@
         </is>
       </c>
       <c r="B21" s="6" t="n">
-        <v>0.13368501</v>
+        <v>0.13988412</v>
       </c>
       <c r="C21" s="6" t="n">
-        <v>0.12343087</v>
+        <v>0.12172972</v>
       </c>
       <c r="D21" s="6" t="n">
-        <v>43.18584564785131</v>
+        <v>39.62654313178409</v>
       </c>
       <c r="E21" s="6" t="n">
-        <v>38.10630193240962</v>
+        <v>42.36082199153995</v>
       </c>
       <c r="F21" s="6" t="n">
-        <v>18.70785241973908</v>
+        <v>18.01263487667597</v>
       </c>
       <c r="G21" s="6" t="n">
-        <v>81.29214758026093</v>
+        <v>81.98736512332404</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>18.70785241973908</v>
+        <v>18.01263487667597</v>
       </c>
       <c r="I21" s="6" t="n"/>
     </row>
@@ -1124,22 +1124,22 @@
         <v>80.28050343</v>
       </c>
       <c r="C23" s="6" t="n">
-        <v>63.96286396144227</v>
+        <v>59.53335559700304</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>25.28937267958355</v>
+        <v>26.49068634663481</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>47.70535135074126</v>
+        <v>50.69341175754067</v>
       </c>
       <c r="F23" s="6" t="n">
-        <v>27.00527596967519</v>
+        <v>22.81590189582453</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>72.99472403032482</v>
+        <v>77.18409810417548</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>27.00527596967519</v>
+        <v>22.81590189582453</v>
       </c>
       <c r="I23" s="6" t="n"/>
     </row>

--- a/output/aggregate_tables/status_by_landings_w_totals_area.xlsx
+++ b/output/aggregate_tables/status_by_landings_w_totals_area.xlsx
@@ -631,22 +631,22 @@
         <v>1.11275983</v>
       </c>
       <c r="C6" s="6" t="n">
-        <v>0.7875169576339286</v>
+        <v>0.7883901122368421</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>67.41422215737725</v>
+        <v>67.33698272059627</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>10.61030334214265</v>
+        <v>10.59597514994378</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>21.97547450048009</v>
+        <v>22.06704212945996</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>78.02452549951991</v>
+        <v>77.93295787054004</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>21.97547450048009</v>
+        <v>22.06704212945996</v>
       </c>
       <c r="I6" s="6" t="n"/>
     </row>
@@ -718,22 +718,22 @@
         <v>1.97234068</v>
       </c>
       <c r="C9" s="6" t="n">
-        <v>1.6769927945</v>
+        <v>1.677516938852459</v>
       </c>
       <c r="D9" s="6" t="n">
-        <v>2.31022930345436</v>
+        <v>2.309312269950301</v>
       </c>
       <c r="E9" s="6" t="n">
-        <v>66.07998198856063</v>
+        <v>66.09165396408049</v>
       </c>
       <c r="F9" s="6" t="n">
-        <v>31.60978870798501</v>
+        <v>31.59903376596921</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>68.390211292015</v>
+        <v>68.40096623403079</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>31.60978870798501</v>
+        <v>31.59903376596921</v>
       </c>
       <c r="I9" s="6" t="n"/>
     </row>
@@ -1124,22 +1124,22 @@
         <v>80.28050343</v>
       </c>
       <c r="C23" s="6" t="n">
-        <v>59.53335559700304</v>
+        <v>59.53475289595842</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>26.49068634663481</v>
+        <v>26.49002497454721</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>50.69341175754067</v>
+        <v>50.69309849118402</v>
       </c>
       <c r="F23" s="6" t="n">
-        <v>22.81590189582453</v>
+        <v>22.81687653426877</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>77.18409810417548</v>
+        <v>77.18312346573123</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>22.81590189582453</v>
+        <v>22.81687653426877</v>
       </c>
       <c r="I23" s="6" t="n"/>
     </row>
